--- a/01. BD Home Screen.xlsx
+++ b/01. BD Home Screen.xlsx
@@ -4,27 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215" tabRatio="774" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9215" tabRatio="774"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="2" r:id="rId1"/>
-    <sheet name="Screen Layout" sheetId="15" r:id="rId2"/>
-    <sheet name="0. Home Screen Layout" sheetId="26" r:id="rId3"/>
+    <sheet name="0. Home Screen Layout" sheetId="26" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Screen Layout'!$A$1:$AG$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">COVER!$A$1:$AF$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Screen Layout'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">COVER!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'0. Home Screen Layout'!$A$1:$AG$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'0. Home Screen Layout'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'0. Home Screen Layout'!$A$1:$AG$37</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'0. Home Screen Layout'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>BASIC DESIGN</t>
   </si>
@@ -59,94 +56,10 @@
     <t>In charge</t>
   </si>
   <si>
-    <t>画面レイアウト</t>
+    <t>08.03</t>
   </si>
   <si>
-    <t>システム名</t>
-  </si>
-  <si>
-    <t>サブシステム名</t>
-  </si>
-  <si>
-    <t>機能名</t>
-  </si>
-  <si>
-    <t>作成会社</t>
-  </si>
-  <si>
-    <t>担当者</t>
-  </si>
-  <si>
-    <t>引合先カナ名</t>
-  </si>
-  <si>
-    <t>ＢＢＢＢＢＢＢＢＢＢ</t>
-  </si>
-  <si>
-    <t>BBBBBB</t>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-  </si>
-  <si>
-    <t>最終報告日</t>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
-    <t>～</t>
-  </si>
-  <si>
-    <t>受注確度</t>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-  </si>
-  <si>
-    <t>▽</t>
-  </si>
-  <si>
-    <t>引合状況</t>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯ</t>
-  </si>
-  <si>
-    <t>□  ｸﾛｰｽﾞ分も含む</t>
-  </si>
-  <si>
-    <t>引合番号</t>
-  </si>
-  <si>
-    <t>引合先名</t>
-  </si>
-  <si>
-    <t>受注見込金額</t>
-  </si>
-  <si>
-    <t>受注予定月</t>
-  </si>
-  <si>
-    <t>最終営業報告</t>
-  </si>
-  <si>
-    <t>ZZZZZ6</t>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯ</t>
-  </si>
-  <si>
-    <t>ZZZ,ZZZ,ZZ6</t>
-  </si>
-  <si>
-    <t>YYYY/MM</t>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯ</t>
-  </si>
-  <si>
-    <t>△</t>
+    <t>Tempo Homescreen</t>
   </si>
   <si>
     <t>SCREEN LAYOUT</t>
@@ -155,7 +68,16 @@
     <t>System Name</t>
   </si>
   <si>
+    <t>サブシステム名</t>
+  </si>
+  <si>
     <t>FUNCTION NAME</t>
+  </si>
+  <si>
+    <t>作成会社</t>
+  </si>
+  <si>
+    <t>担当者</t>
   </si>
   <si>
     <t>Comapny Logo without TEXT</t>
@@ -182,7 +104,7 @@
     <t>ベトナムの高度人材を育てる</t>
   </si>
   <si>
-    <t>Slide (Picture + Text) with arrow</t>
+    <t>Slide (Picture + Text) with arrow with "もっと見る" box</t>
   </si>
   <si>
     <t>新しい未来を切り拓きましょう</t>
@@ -230,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -274,12 +196,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="ＭＳ ゴシック"/>
@@ -292,6 +208,21 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,15 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="8.25"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -320,37 +252,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="8.25"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="128"/>
@@ -365,9 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -381,14 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -403,13 +305,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -426,8 +335,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -447,19 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,108 +387,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,7 +399,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,36 +543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -759,58 +675,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -842,10 +706,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -854,8 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,8 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,8 +772,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -919,155 +783,155 @@
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,7 +992,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,9 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1042,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1218,7 +1079,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,168 +1138,61 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1473,6 +1227,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1547,212 +1305,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7320280" y="1704975"/>
-          <a:ext cx="592455" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>印刷</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>17145</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8487410" y="1695450"/>
-          <a:ext cx="592455" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>閉じる</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>214630</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6445250" y="1695450"/>
-          <a:ext cx="591820" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>検索</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4058,8 +3610,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Read more (もっと見る) </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Read more button direct to Staff introduction Screen (05)</a:t>
+            <a:t> button direct to Staff introduction Screen (05)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4263,7 +3821,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Read more button direct to </a:t>
+            <a:t>Read more (もっと見る) button direct to </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP">
@@ -4633,8 +4191,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Read more (もっと見る) </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Read more button direct to </a:t>
+            <a:t> button direct to </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP">
@@ -5761,8 +5325,8 @@
   <sheetPr/>
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" customHeight="1"/>
@@ -5776,219 +5340,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="142"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:176">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
-      <c r="BR2" s="80"/>
-      <c r="BS2" s="80"/>
-      <c r="BT2" s="80"/>
-      <c r="BU2" s="80"/>
-      <c r="BV2" s="80"/>
-      <c r="BW2" s="80"/>
-      <c r="BX2" s="80"/>
-      <c r="BY2" s="80"/>
-      <c r="BZ2" s="80"/>
-      <c r="CA2" s="80"/>
-      <c r="CB2" s="80"/>
-      <c r="CC2" s="80"/>
-      <c r="CD2" s="80"/>
-      <c r="CE2" s="80"/>
-      <c r="CF2" s="80"/>
-      <c r="CG2" s="80"/>
-      <c r="CH2" s="80"/>
-      <c r="CI2" s="80"/>
-      <c r="CJ2" s="80"/>
-      <c r="CK2" s="80"/>
-      <c r="CL2" s="80"/>
-      <c r="CM2" s="80"/>
-      <c r="CN2" s="80"/>
-      <c r="CO2" s="80"/>
-      <c r="CP2" s="80"/>
-      <c r="CQ2" s="80"/>
-      <c r="CR2" s="80"/>
-      <c r="CS2" s="80"/>
-      <c r="CT2" s="80"/>
-      <c r="CU2" s="80"/>
-      <c r="CV2" s="80"/>
-      <c r="CW2" s="80"/>
-      <c r="CX2" s="80"/>
-      <c r="CY2" s="80"/>
-      <c r="CZ2" s="80"/>
-      <c r="DA2" s="80"/>
-      <c r="DB2" s="80"/>
-      <c r="DC2" s="80"/>
-      <c r="DD2" s="80"/>
-      <c r="DE2" s="80"/>
-      <c r="DF2" s="80"/>
-      <c r="DG2" s="80"/>
-      <c r="DH2" s="80"/>
-      <c r="DI2" s="80"/>
-      <c r="DJ2" s="80"/>
-      <c r="DK2" s="80"/>
-      <c r="DL2" s="80"/>
-      <c r="DM2" s="80"/>
-      <c r="DN2" s="80"/>
-      <c r="DO2" s="80"/>
-      <c r="DP2" s="80"/>
-      <c r="DQ2" s="80"/>
-      <c r="DR2" s="80"/>
-      <c r="DS2" s="80"/>
-      <c r="DT2" s="80"/>
-      <c r="DU2" s="80"/>
-      <c r="DV2" s="80"/>
-      <c r="DW2" s="80"/>
-      <c r="DX2" s="80"/>
-      <c r="DY2" s="80"/>
-      <c r="DZ2" s="80"/>
-      <c r="EA2" s="80"/>
-      <c r="EB2" s="80"/>
-      <c r="EC2" s="80"/>
-      <c r="ED2" s="80"/>
-      <c r="EE2" s="80"/>
-      <c r="EF2" s="80"/>
-      <c r="EG2" s="80"/>
-      <c r="EH2" s="80"/>
-      <c r="EI2" s="80"/>
-      <c r="EJ2" s="80"/>
-      <c r="EK2" s="80"/>
-      <c r="EL2" s="80"/>
-      <c r="EM2" s="80"/>
-      <c r="EN2" s="80"/>
-      <c r="EO2" s="80"/>
-      <c r="EP2" s="80"/>
-      <c r="EQ2" s="80"/>
-      <c r="ER2" s="80"/>
-      <c r="ES2" s="80"/>
-      <c r="ET2" s="80"/>
-      <c r="EU2" s="80"/>
-      <c r="EV2" s="80"/>
-      <c r="EW2" s="80"/>
-      <c r="EX2" s="80"/>
-      <c r="EY2" s="80"/>
-      <c r="EZ2" s="80"/>
-      <c r="FA2" s="80"/>
-      <c r="FB2" s="80"/>
-      <c r="FC2" s="80"/>
-      <c r="FD2" s="80"/>
-      <c r="FE2" s="80"/>
-      <c r="FF2" s="80"/>
-      <c r="FG2" s="80"/>
-      <c r="FH2" s="80"/>
-      <c r="FI2" s="80"/>
-      <c r="FJ2" s="80"/>
-      <c r="FK2" s="80"/>
-      <c r="FL2" s="80"/>
-      <c r="FM2" s="80"/>
-      <c r="FN2" s="80"/>
-      <c r="FO2" s="80"/>
-      <c r="FP2" s="80"/>
-      <c r="FQ2" s="80"/>
-      <c r="FR2" s="80"/>
-      <c r="FS2" s="80"/>
-      <c r="FT2" s="80"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
+      <c r="BR2" s="79"/>
+      <c r="BS2" s="79"/>
+      <c r="BT2" s="79"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="79"/>
+      <c r="BY2" s="79"/>
+      <c r="BZ2" s="79"/>
+      <c r="CA2" s="79"/>
+      <c r="CB2" s="79"/>
+      <c r="CC2" s="79"/>
+      <c r="CD2" s="79"/>
+      <c r="CE2" s="79"/>
+      <c r="CF2" s="79"/>
+      <c r="CG2" s="79"/>
+      <c r="CH2" s="79"/>
+      <c r="CI2" s="79"/>
+      <c r="CJ2" s="79"/>
+      <c r="CK2" s="79"/>
+      <c r="CL2" s="79"/>
+      <c r="CM2" s="79"/>
+      <c r="CN2" s="79"/>
+      <c r="CO2" s="79"/>
+      <c r="CP2" s="79"/>
+      <c r="CQ2" s="79"/>
+      <c r="CR2" s="79"/>
+      <c r="CS2" s="79"/>
+      <c r="CT2" s="79"/>
+      <c r="CU2" s="79"/>
+      <c r="CV2" s="79"/>
+      <c r="CW2" s="79"/>
+      <c r="CX2" s="79"/>
+      <c r="CY2" s="79"/>
+      <c r="CZ2" s="79"/>
+      <c r="DA2" s="79"/>
+      <c r="DB2" s="79"/>
+      <c r="DC2" s="79"/>
+      <c r="DD2" s="79"/>
+      <c r="DE2" s="79"/>
+      <c r="DF2" s="79"/>
+      <c r="DG2" s="79"/>
+      <c r="DH2" s="79"/>
+      <c r="DI2" s="79"/>
+      <c r="DJ2" s="79"/>
+      <c r="DK2" s="79"/>
+      <c r="DL2" s="79"/>
+      <c r="DM2" s="79"/>
+      <c r="DN2" s="79"/>
+      <c r="DO2" s="79"/>
+      <c r="DP2" s="79"/>
+      <c r="DQ2" s="79"/>
+      <c r="DR2" s="79"/>
+      <c r="DS2" s="79"/>
+      <c r="DT2" s="79"/>
+      <c r="DU2" s="79"/>
+      <c r="DV2" s="79"/>
+      <c r="DW2" s="79"/>
+      <c r="DX2" s="79"/>
+      <c r="DY2" s="79"/>
+      <c r="DZ2" s="79"/>
+      <c r="EA2" s="79"/>
+      <c r="EB2" s="79"/>
+      <c r="EC2" s="79"/>
+      <c r="ED2" s="79"/>
+      <c r="EE2" s="79"/>
+      <c r="EF2" s="79"/>
+      <c r="EG2" s="79"/>
+      <c r="EH2" s="79"/>
+      <c r="EI2" s="79"/>
+      <c r="EJ2" s="79"/>
+      <c r="EK2" s="79"/>
+      <c r="EL2" s="79"/>
+      <c r="EM2" s="79"/>
+      <c r="EN2" s="79"/>
+      <c r="EO2" s="79"/>
+      <c r="EP2" s="79"/>
+      <c r="EQ2" s="79"/>
+      <c r="ER2" s="79"/>
+      <c r="ES2" s="79"/>
+      <c r="ET2" s="79"/>
+      <c r="EU2" s="79"/>
+      <c r="EV2" s="79"/>
+      <c r="EW2" s="79"/>
+      <c r="EX2" s="79"/>
+      <c r="EY2" s="79"/>
+      <c r="EZ2" s="79"/>
+      <c r="FA2" s="79"/>
+      <c r="FB2" s="79"/>
+      <c r="FC2" s="79"/>
+      <c r="FD2" s="79"/>
+      <c r="FE2" s="79"/>
+      <c r="FF2" s="79"/>
+      <c r="FG2" s="79"/>
+      <c r="FH2" s="79"/>
+      <c r="FI2" s="79"/>
+      <c r="FJ2" s="79"/>
+      <c r="FK2" s="79"/>
+      <c r="FL2" s="79"/>
+      <c r="FM2" s="79"/>
+      <c r="FN2" s="79"/>
+      <c r="FO2" s="79"/>
+      <c r="FP2" s="79"/>
+      <c r="FQ2" s="79"/>
+      <c r="FR2" s="79"/>
+      <c r="FS2" s="79"/>
+      <c r="FT2" s="79"/>
     </row>
     <row r="3" customHeight="1" spans="1:32">
-      <c r="A3" s="97"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -6003,7 +5567,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="161"/>
+      <c r="P3" s="113"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -6019,80 +5583,80 @@
       <c r="AC3" s="20"/>
       <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
-      <c r="AF3" s="84"/>
+      <c r="AF3" s="83"/>
     </row>
     <row r="4" customHeight="1" spans="1:32">
-      <c r="A4" s="97"/>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="84"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="83"/>
     </row>
     <row r="5" customHeight="1" spans="1:32">
-      <c r="A5" s="97"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="84"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="83"/>
     </row>
     <row r="6" customHeight="1" spans="1:32">
-      <c r="A6" s="97"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -6107,7 +5671,7 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="161"/>
+      <c r="P6" s="113"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -6123,10 +5687,10 @@
       <c r="AC6" s="20"/>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
-      <c r="AF6" s="84"/>
+      <c r="AF6" s="83"/>
     </row>
     <row r="7" customHeight="1" spans="1:32">
-      <c r="A7" s="97"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -6141,7 +5705,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="161"/>
+      <c r="P7" s="113"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -6157,10 +5721,10 @@
       <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
-      <c r="AF7" s="84"/>
+      <c r="AF7" s="83"/>
     </row>
     <row r="8" customHeight="1" spans="1:32">
-      <c r="A8" s="97"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -6191,10 +5755,10 @@
       <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20"/>
-      <c r="AF8" s="84"/>
+      <c r="AF8" s="83"/>
     </row>
     <row r="9" customHeight="1" spans="1:32">
-      <c r="A9" s="97"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -6209,7 +5773,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="161"/>
+      <c r="P9" s="113"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -6225,10 +5789,10 @@
       <c r="AC9" s="20"/>
       <c r="AD9" s="20"/>
       <c r="AE9" s="20"/>
-      <c r="AF9" s="84"/>
+      <c r="AF9" s="83"/>
     </row>
     <row r="10" customHeight="1" spans="1:32">
-      <c r="A10" s="97"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -6259,49 +5823,49 @@
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
-      <c r="AF10" s="84"/>
+      <c r="AF10" s="83"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="97"/>
-      <c r="B11" s="146" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="146" t="s">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="162"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="114"/>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="97"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="98" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="10"/>
@@ -6314,31 +5878,31 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="170"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="122"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="97"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6350,29 +5914,29 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="171"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="123"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:32">
-      <c r="A14" s="97"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -6387,7 +5951,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="161"/>
+      <c r="P14" s="113"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -6403,10 +5967,10 @@
       <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
       <c r="AE14" s="20"/>
-      <c r="AF14" s="84"/>
+      <c r="AF14" s="83"/>
     </row>
     <row r="15" customHeight="1" spans="1:32">
-      <c r="A15" s="97"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -6421,7 +5985,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="161"/>
+      <c r="P15" s="113"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
@@ -6437,10 +6001,10 @@
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="84"/>
+      <c r="AF15" s="83"/>
     </row>
     <row r="16" customHeight="1" spans="1:32">
-      <c r="A16" s="97"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -6455,7 +6019,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="161"/>
+      <c r="P16" s="113"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -6463,18 +6027,18 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20"/>
-      <c r="AF16" s="84"/>
+      <c r="AF16" s="83"/>
     </row>
     <row r="17" customHeight="1" spans="1:32">
-      <c r="A17" s="97"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -6489,7 +6053,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="161"/>
+      <c r="P17" s="113"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
@@ -6505,10 +6069,10 @@
       <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20"/>
-      <c r="AF17" s="84"/>
+      <c r="AF17" s="83"/>
     </row>
     <row r="18" customHeight="1" spans="1:32">
-      <c r="A18" s="97"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -6523,7 +6087,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="161"/>
+      <c r="P18" s="113"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -6539,10 +6103,10 @@
       <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
-      <c r="AF18" s="84"/>
+      <c r="AF18" s="83"/>
     </row>
     <row r="19" customHeight="1" spans="1:32">
-      <c r="A19" s="97"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -6557,7 +6121,7 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="161"/>
+      <c r="P19" s="113"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
@@ -6573,10 +6137,10 @@
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20"/>
-      <c r="AF19" s="84"/>
+      <c r="AF19" s="83"/>
     </row>
     <row r="20" customHeight="1" spans="1:32">
-      <c r="A20" s="97"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -6591,7 +6155,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="161"/>
+      <c r="P20" s="113"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
@@ -6607,11 +6171,11 @@
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20"/>
-      <c r="AF20" s="84"/>
+      <c r="AF20" s="83"/>
     </row>
     <row r="21" customHeight="1" spans="1:32">
-      <c r="A21" s="97"/>
-      <c r="B21" s="149" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="99" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="20"/>
@@ -6627,7 +6191,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
-      <c r="P21" s="161"/>
+      <c r="P21" s="113"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -6643,10 +6207,10 @@
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
       <c r="AE21" s="20"/>
-      <c r="AF21" s="84"/>
+      <c r="AF21" s="83"/>
     </row>
     <row r="22" customHeight="1" spans="1:32">
-      <c r="A22" s="97"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -6661,7 +6225,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="161"/>
+      <c r="P22" s="113"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -6677,661 +6241,667 @@
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
       <c r="AE22" s="20"/>
-      <c r="AF22" s="84"/>
+      <c r="AF22" s="83"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:32">
-      <c r="A23" s="97"/>
-      <c r="B23" s="150" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153" t="s">
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="150" t="s">
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="152"/>
-      <c r="AC23" s="150" t="s">
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="152"/>
-      <c r="AF23" s="84"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="83"/>
     </row>
     <row r="24" customHeight="1" spans="1:32">
-      <c r="A24" s="97"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="84"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="104">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="83"/>
     </row>
     <row r="25" customHeight="1" spans="1:32">
-      <c r="A25" s="97"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="84"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="83"/>
     </row>
     <row r="26" customHeight="1" spans="1:32">
-      <c r="A26" s="97"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="84"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="83"/>
     </row>
     <row r="27" customHeight="1" spans="1:32">
-      <c r="A27" s="97"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="154"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="84"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="83"/>
     </row>
     <row r="28" customHeight="1" spans="1:32">
-      <c r="A28" s="97"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="84"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="83"/>
     </row>
     <row r="29" customHeight="1" spans="1:32">
-      <c r="A29" s="97"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="154"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="84"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="83"/>
     </row>
     <row r="30" customHeight="1" spans="1:32">
-      <c r="A30" s="97"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="84"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="83"/>
     </row>
     <row r="31" customHeight="1" spans="1:32">
-      <c r="A31" s="97"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="84"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="83"/>
     </row>
     <row r="32" customHeight="1" spans="1:32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="84"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="83"/>
     </row>
     <row r="33" customHeight="1" spans="1:32">
-      <c r="A33" s="97"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="84"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="106"/>
+      <c r="AF33" s="83"/>
     </row>
     <row r="34" customHeight="1" spans="1:32">
-      <c r="A34" s="97"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="155"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="155"/>
-      <c r="U34" s="155"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="155"/>
-      <c r="AA34" s="155"/>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="154"/>
-      <c r="AD34" s="155"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="84"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="83"/>
     </row>
     <row r="35" customHeight="1" spans="1:32">
-      <c r="A35" s="97"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
-      <c r="U35" s="155"/>
-      <c r="V35" s="155"/>
-      <c r="W35" s="155"/>
-      <c r="X35" s="155"/>
-      <c r="Y35" s="155"/>
-      <c r="Z35" s="155"/>
-      <c r="AA35" s="155"/>
-      <c r="AB35" s="156"/>
-      <c r="AC35" s="154"/>
-      <c r="AD35" s="155"/>
-      <c r="AE35" s="156"/>
-      <c r="AF35" s="84"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="105"/>
+      <c r="AA35" s="105"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="83"/>
     </row>
     <row r="36" customHeight="1" spans="1:32">
-      <c r="A36" s="97"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="155"/>
-      <c r="W36" s="155"/>
-      <c r="X36" s="155"/>
-      <c r="Y36" s="155"/>
-      <c r="Z36" s="155"/>
-      <c r="AA36" s="155"/>
-      <c r="AB36" s="156"/>
-      <c r="AC36" s="154"/>
-      <c r="AD36" s="155"/>
-      <c r="AE36" s="156"/>
-      <c r="AF36" s="84"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="105"/>
+      <c r="Y36" s="105"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="105"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="83"/>
     </row>
     <row r="37" customHeight="1" spans="1:32">
-      <c r="A37" s="97"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="155"/>
-      <c r="T37" s="155"/>
-      <c r="U37" s="155"/>
-      <c r="V37" s="155"/>
-      <c r="W37" s="155"/>
-      <c r="X37" s="155"/>
-      <c r="Y37" s="155"/>
-      <c r="Z37" s="155"/>
-      <c r="AA37" s="155"/>
-      <c r="AB37" s="156"/>
-      <c r="AC37" s="154"/>
-      <c r="AD37" s="155"/>
-      <c r="AE37" s="156"/>
-      <c r="AF37" s="84"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="105"/>
+      <c r="Y37" s="105"/>
+      <c r="Z37" s="105"/>
+      <c r="AA37" s="105"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="105"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="83"/>
     </row>
     <row r="38" customHeight="1" spans="1:32">
-      <c r="A38" s="97"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="155"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="155"/>
-      <c r="Y38" s="155"/>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="156"/>
-      <c r="AC38" s="154"/>
-      <c r="AD38" s="155"/>
-      <c r="AE38" s="156"/>
-      <c r="AF38" s="84"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="105"/>
+      <c r="X38" s="105"/>
+      <c r="Y38" s="105"/>
+      <c r="Z38" s="105"/>
+      <c r="AA38" s="105"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="105"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="83"/>
     </row>
     <row r="39" customHeight="1" spans="1:32">
-      <c r="A39" s="97"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="156"/>
-      <c r="AC39" s="154"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="156"/>
-      <c r="AF39" s="84"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="83"/>
     </row>
     <row r="40" customHeight="1" spans="1:32">
-      <c r="A40" s="97"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="155"/>
-      <c r="Q40" s="155"/>
-      <c r="R40" s="155"/>
-      <c r="S40" s="155"/>
-      <c r="T40" s="155"/>
-      <c r="U40" s="155"/>
-      <c r="V40" s="155"/>
-      <c r="W40" s="155"/>
-      <c r="X40" s="155"/>
-      <c r="Y40" s="155"/>
-      <c r="Z40" s="155"/>
-      <c r="AA40" s="155"/>
-      <c r="AB40" s="156"/>
-      <c r="AC40" s="154"/>
-      <c r="AD40" s="155"/>
-      <c r="AE40" s="156"/>
-      <c r="AF40" s="84"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="105"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="106"/>
+      <c r="AF40" s="83"/>
     </row>
     <row r="41" customHeight="1" spans="1:32">
-      <c r="A41" s="112"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="140"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -7425,12 +6995,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FU44"/>
+  <dimension ref="A1:FU50"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomLeft" activeCell="AS32" sqref="AS32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" customHeight="1"/>
@@ -7445,7 +7015,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:33">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7482,7 +7052,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7490,7 +7060,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -7498,7 +7068,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -7516,99 +7086,99 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="66" t="s">
-        <v>14</v>
+      <c r="AD2" s="65" t="s">
+        <v>16</v>
       </c>
-      <c r="AE2" s="67"/>
+      <c r="AE2" s="66"/>
       <c r="AF2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" s="8"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="91" t="str">
+      <c r="A3" s="9" t="str">
         <f>COVER!B12</f>
         <v>TOP CREATIVE WEBPAGE</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="91">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9">
         <f>COVER!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="114" t="str">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="49" t="str">
         <f>COVER!M12</f>
         <v>HOMESCREEN</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="114">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="49">
         <f>COVER!AB12</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="114">
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="49">
         <f>COVER!AD12</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="133"/>
+      <c r="AG3" s="67"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="134"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="68"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:177">
       <c r="A5" s="15"/>
@@ -7620,14 +7190,14 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="54"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="54"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -7643,151 +7213,151 @@
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="80"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="80"/>
-      <c r="CB5" s="80"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="80"/>
-      <c r="CI5" s="80"/>
-      <c r="CJ5" s="80"/>
-      <c r="CK5" s="80"/>
-      <c r="CL5" s="80"/>
-      <c r="CM5" s="80"/>
-      <c r="CN5" s="80"/>
-      <c r="CO5" s="80"/>
-      <c r="CP5" s="80"/>
-      <c r="CQ5" s="80"/>
-      <c r="CR5" s="80"/>
-      <c r="CS5" s="80"/>
-      <c r="CT5" s="80"/>
-      <c r="CU5" s="80"/>
-      <c r="CV5" s="80"/>
-      <c r="CW5" s="80"/>
-      <c r="CX5" s="80"/>
-      <c r="CY5" s="80"/>
-      <c r="CZ5" s="80"/>
-      <c r="DA5" s="80"/>
-      <c r="DB5" s="80"/>
-      <c r="DC5" s="80"/>
-      <c r="DD5" s="80"/>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80"/>
-      <c r="DG5" s="80"/>
-      <c r="DH5" s="80"/>
-      <c r="DI5" s="80"/>
-      <c r="DJ5" s="80"/>
-      <c r="DK5" s="80"/>
-      <c r="DL5" s="80"/>
-      <c r="DM5" s="80"/>
-      <c r="DN5" s="80"/>
-      <c r="DO5" s="80"/>
-      <c r="DP5" s="80"/>
-      <c r="DQ5" s="80"/>
-      <c r="DR5" s="80"/>
-      <c r="DS5" s="80"/>
-      <c r="DT5" s="80"/>
-      <c r="DU5" s="80"/>
-      <c r="DV5" s="80"/>
-      <c r="DW5" s="80"/>
-      <c r="DX5" s="80"/>
-      <c r="DY5" s="80"/>
-      <c r="DZ5" s="80"/>
-      <c r="EA5" s="80"/>
-      <c r="EB5" s="80"/>
-      <c r="EC5" s="80"/>
-      <c r="ED5" s="80"/>
-      <c r="EE5" s="80"/>
-      <c r="EF5" s="80"/>
-      <c r="EG5" s="80"/>
-      <c r="EH5" s="80"/>
-      <c r="EI5" s="80"/>
-      <c r="EJ5" s="80"/>
-      <c r="EK5" s="80"/>
-      <c r="EL5" s="80"/>
-      <c r="EM5" s="80"/>
-      <c r="EN5" s="80"/>
-      <c r="EO5" s="80"/>
-      <c r="EP5" s="80"/>
-      <c r="EQ5" s="80"/>
-      <c r="ER5" s="80"/>
-      <c r="ES5" s="80"/>
-      <c r="ET5" s="80"/>
-      <c r="EU5" s="80"/>
-      <c r="EV5" s="80"/>
-      <c r="EW5" s="80"/>
-      <c r="EX5" s="80"/>
-      <c r="EY5" s="80"/>
-      <c r="EZ5" s="80"/>
-      <c r="FA5" s="80"/>
-      <c r="FB5" s="80"/>
-      <c r="FC5" s="80"/>
-      <c r="FD5" s="80"/>
-      <c r="FE5" s="80"/>
-      <c r="FF5" s="80"/>
-      <c r="FG5" s="80"/>
-      <c r="FH5" s="80"/>
-      <c r="FI5" s="80"/>
-      <c r="FJ5" s="80"/>
-      <c r="FK5" s="80"/>
-      <c r="FL5" s="80"/>
-      <c r="FM5" s="80"/>
-      <c r="FN5" s="80"/>
-      <c r="FO5" s="80"/>
-      <c r="FP5" s="80"/>
-      <c r="FQ5" s="80"/>
-      <c r="FR5" s="80"/>
-      <c r="FS5" s="80"/>
-      <c r="FT5" s="80"/>
-      <c r="FU5" s="80"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="79"/>
+      <c r="CF5" s="79"/>
+      <c r="CG5" s="79"/>
+      <c r="CH5" s="79"/>
+      <c r="CI5" s="79"/>
+      <c r="CJ5" s="79"/>
+      <c r="CK5" s="79"/>
+      <c r="CL5" s="79"/>
+      <c r="CM5" s="79"/>
+      <c r="CN5" s="79"/>
+      <c r="CO5" s="79"/>
+      <c r="CP5" s="79"/>
+      <c r="CQ5" s="79"/>
+      <c r="CR5" s="79"/>
+      <c r="CS5" s="79"/>
+      <c r="CT5" s="79"/>
+      <c r="CU5" s="79"/>
+      <c r="CV5" s="79"/>
+      <c r="CW5" s="79"/>
+      <c r="CX5" s="79"/>
+      <c r="CY5" s="79"/>
+      <c r="CZ5" s="79"/>
+      <c r="DA5" s="79"/>
+      <c r="DB5" s="79"/>
+      <c r="DC5" s="79"/>
+      <c r="DD5" s="79"/>
+      <c r="DE5" s="79"/>
+      <c r="DF5" s="79"/>
+      <c r="DG5" s="79"/>
+      <c r="DH5" s="79"/>
+      <c r="DI5" s="79"/>
+      <c r="DJ5" s="79"/>
+      <c r="DK5" s="79"/>
+      <c r="DL5" s="79"/>
+      <c r="DM5" s="79"/>
+      <c r="DN5" s="79"/>
+      <c r="DO5" s="79"/>
+      <c r="DP5" s="79"/>
+      <c r="DQ5" s="79"/>
+      <c r="DR5" s="79"/>
+      <c r="DS5" s="79"/>
+      <c r="DT5" s="79"/>
+      <c r="DU5" s="79"/>
+      <c r="DV5" s="79"/>
+      <c r="DW5" s="79"/>
+      <c r="DX5" s="79"/>
+      <c r="DY5" s="79"/>
+      <c r="DZ5" s="79"/>
+      <c r="EA5" s="79"/>
+      <c r="EB5" s="79"/>
+      <c r="EC5" s="79"/>
+      <c r="ED5" s="79"/>
+      <c r="EE5" s="79"/>
+      <c r="EF5" s="79"/>
+      <c r="EG5" s="79"/>
+      <c r="EH5" s="79"/>
+      <c r="EI5" s="79"/>
+      <c r="EJ5" s="79"/>
+      <c r="EK5" s="79"/>
+      <c r="EL5" s="79"/>
+      <c r="EM5" s="79"/>
+      <c r="EN5" s="79"/>
+      <c r="EO5" s="79"/>
+      <c r="EP5" s="79"/>
+      <c r="EQ5" s="79"/>
+      <c r="ER5" s="79"/>
+      <c r="ES5" s="79"/>
+      <c r="ET5" s="79"/>
+      <c r="EU5" s="79"/>
+      <c r="EV5" s="79"/>
+      <c r="EW5" s="79"/>
+      <c r="EX5" s="79"/>
+      <c r="EY5" s="79"/>
+      <c r="EZ5" s="79"/>
+      <c r="FA5" s="79"/>
+      <c r="FB5" s="79"/>
+      <c r="FC5" s="79"/>
+      <c r="FD5" s="79"/>
+      <c r="FE5" s="79"/>
+      <c r="FF5" s="79"/>
+      <c r="FG5" s="79"/>
+      <c r="FH5" s="79"/>
+      <c r="FI5" s="79"/>
+      <c r="FJ5" s="79"/>
+      <c r="FK5" s="79"/>
+      <c r="FL5" s="79"/>
+      <c r="FM5" s="79"/>
+      <c r="FN5" s="79"/>
+      <c r="FO5" s="79"/>
+      <c r="FP5" s="79"/>
+      <c r="FQ5" s="79"/>
+      <c r="FR5" s="79"/>
+      <c r="FS5" s="79"/>
+      <c r="FT5" s="79"/>
+      <c r="FU5" s="79"/>
     </row>
     <row r="6" customHeight="1" spans="1:33">
       <c r="A6" s="18"/>
@@ -7822,1844 +7392,7 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
-      <c r="AG6" s="81"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:33">
-      <c r="A7" s="97"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="118"/>
-      <c r="U7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="84"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:33">
-      <c r="A8" s="97"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="84"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:33">
-      <c r="A9" s="97"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="99"/>
-      <c r="U9" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="84"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:33">
-      <c r="A10" s="97"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="84"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:33">
-      <c r="A11" s="97"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="99"/>
-      <c r="M11" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="84"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:33">
-      <c r="A12" s="97"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="84"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:33">
-      <c r="A13" s="97"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="84"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:33">
-      <c r="A14" s="97"/>
-      <c r="B14" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="102"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="122"/>
-      <c r="S14" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="121"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="84"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:33">
-      <c r="A15" s="97"/>
-      <c r="B15" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="127"/>
-      <c r="S15" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="131"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" s="123"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG15" s="84"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:33">
-      <c r="A16" s="97"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="84"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:33">
-      <c r="A17" s="97"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="84"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:33">
-      <c r="A18" s="97"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="84"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:33">
-      <c r="A19" s="97"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="84"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:33">
-      <c r="A20" s="97"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="84"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:33">
-      <c r="A21" s="97"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="84"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:33">
-      <c r="A22" s="97"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="137"/>
-      <c r="AG22" s="84"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:33">
-      <c r="A23" s="97"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="84"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:33">
-      <c r="A24" s="97"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="84"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:33">
-      <c r="A25" s="97"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="84"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:33">
-      <c r="A26" s="97"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="84"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:33">
-      <c r="A27" s="97"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="84"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:33">
-      <c r="A28" s="97"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="84"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:33">
-      <c r="A29" s="97"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="84"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:33">
-      <c r="A30" s="97"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="84"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:33">
-      <c r="A31" s="97"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="137"/>
-      <c r="AG31" s="84"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:33">
-      <c r="A32" s="97"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="137"/>
-      <c r="AG32" s="84"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:33">
-      <c r="A33" s="97"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="84"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:33">
-      <c r="A34" s="97"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="137"/>
-      <c r="AG34" s="84"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:33">
-      <c r="A35" s="97"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="137"/>
-      <c r="AG35" s="84"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:33">
-      <c r="A36" s="97"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="137"/>
-      <c r="AG36" s="84"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:33">
-      <c r="A37" s="97"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="137"/>
-      <c r="AG37" s="84"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:33">
-      <c r="A38" s="97"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="137"/>
-      <c r="AG38" s="84"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:33">
-      <c r="A39" s="97"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="136"/>
-      <c r="AF39" s="137"/>
-      <c r="AG39" s="84"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:33">
-      <c r="A40" s="97"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="136"/>
-      <c r="AF40" s="137"/>
-      <c r="AG40" s="84"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:33">
-      <c r="A41" s="97"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="138"/>
-      <c r="AF41" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG41" s="84"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:33">
-      <c r="A42" s="97"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
-      <c r="AG42" s="84"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:33">
-      <c r="A43" s="97"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="84"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:33">
-      <c r="A44" s="112"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="140"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.590551181102362" bottom="0.393700787401575" header="0.511811023622047" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:FU50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="AF47" sqref="AF47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.12962962962963" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.12962962962963" style="3" customWidth="1"/>
-    <col min="7" max="30" width="4.12962962962963" style="2" customWidth="1"/>
-    <col min="31" max="33" width="4.12962962962963" style="4" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:33">
-      <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG2" s="8"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="9" t="str">
-        <f>COVER!B12</f>
-        <v>TOP CREATIVE WEBPAGE</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9">
-        <f>COVER!G12</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="50" t="str">
-        <f>COVER!M12</f>
-        <v>HOMESCREEN</v>
-      </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="50">
-        <f>COVER!AB12</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="50">
-        <f>COVER!AD12</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="68"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="69"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:177">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="80"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="80"/>
-      <c r="CB5" s="80"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="80"/>
-      <c r="CI5" s="80"/>
-      <c r="CJ5" s="80"/>
-      <c r="CK5" s="80"/>
-      <c r="CL5" s="80"/>
-      <c r="CM5" s="80"/>
-      <c r="CN5" s="80"/>
-      <c r="CO5" s="80"/>
-      <c r="CP5" s="80"/>
-      <c r="CQ5" s="80"/>
-      <c r="CR5" s="80"/>
-      <c r="CS5" s="80"/>
-      <c r="CT5" s="80"/>
-      <c r="CU5" s="80"/>
-      <c r="CV5" s="80"/>
-      <c r="CW5" s="80"/>
-      <c r="CX5" s="80"/>
-      <c r="CY5" s="80"/>
-      <c r="CZ5" s="80"/>
-      <c r="DA5" s="80"/>
-      <c r="DB5" s="80"/>
-      <c r="DC5" s="80"/>
-      <c r="DD5" s="80"/>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80"/>
-      <c r="DG5" s="80"/>
-      <c r="DH5" s="80"/>
-      <c r="DI5" s="80"/>
-      <c r="DJ5" s="80"/>
-      <c r="DK5" s="80"/>
-      <c r="DL5" s="80"/>
-      <c r="DM5" s="80"/>
-      <c r="DN5" s="80"/>
-      <c r="DO5" s="80"/>
-      <c r="DP5" s="80"/>
-      <c r="DQ5" s="80"/>
-      <c r="DR5" s="80"/>
-      <c r="DS5" s="80"/>
-      <c r="DT5" s="80"/>
-      <c r="DU5" s="80"/>
-      <c r="DV5" s="80"/>
-      <c r="DW5" s="80"/>
-      <c r="DX5" s="80"/>
-      <c r="DY5" s="80"/>
-      <c r="DZ5" s="80"/>
-      <c r="EA5" s="80"/>
-      <c r="EB5" s="80"/>
-      <c r="EC5" s="80"/>
-      <c r="ED5" s="80"/>
-      <c r="EE5" s="80"/>
-      <c r="EF5" s="80"/>
-      <c r="EG5" s="80"/>
-      <c r="EH5" s="80"/>
-      <c r="EI5" s="80"/>
-      <c r="EJ5" s="80"/>
-      <c r="EK5" s="80"/>
-      <c r="EL5" s="80"/>
-      <c r="EM5" s="80"/>
-      <c r="EN5" s="80"/>
-      <c r="EO5" s="80"/>
-      <c r="EP5" s="80"/>
-      <c r="EQ5" s="80"/>
-      <c r="ER5" s="80"/>
-      <c r="ES5" s="80"/>
-      <c r="ET5" s="80"/>
-      <c r="EU5" s="80"/>
-      <c r="EV5" s="80"/>
-      <c r="EW5" s="80"/>
-      <c r="EX5" s="80"/>
-      <c r="EY5" s="80"/>
-      <c r="EZ5" s="80"/>
-      <c r="FA5" s="80"/>
-      <c r="FB5" s="80"/>
-      <c r="FC5" s="80"/>
-      <c r="FD5" s="80"/>
-      <c r="FE5" s="80"/>
-      <c r="FF5" s="80"/>
-      <c r="FG5" s="80"/>
-      <c r="FH5" s="80"/>
-      <c r="FI5" s="80"/>
-      <c r="FJ5" s="80"/>
-      <c r="FK5" s="80"/>
-      <c r="FL5" s="80"/>
-      <c r="FM5" s="80"/>
-      <c r="FN5" s="80"/>
-      <c r="FO5" s="80"/>
-      <c r="FP5" s="80"/>
-      <c r="FQ5" s="80"/>
-      <c r="FR5" s="80"/>
-      <c r="FS5" s="80"/>
-      <c r="FT5" s="80"/>
-      <c r="FU5" s="80"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:33">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="81"/>
+      <c r="AG6" s="80"/>
     </row>
     <row r="7" customHeight="1" spans="1:33">
       <c r="A7" s="20"/>
@@ -9688,62 +7421,62 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
       <c r="AG7" s="20"/>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:33">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="62" t="s">
-        <v>45</v>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="61" t="s">
+        <v>20</v>
       </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="62" t="s">
-        <v>46</v>
+      <c r="R8" s="61"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="61" t="s">
+        <v>21</v>
       </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="62" t="s">
-        <v>47</v>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="61" t="s">
+        <v>22</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62" t="s">
-        <v>48</v>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61" t="s">
+        <v>23</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="72" t="s">
-        <v>49</v>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="71" t="s">
+        <v>24</v>
       </c>
-      <c r="AG8" s="82"/>
+      <c r="AG8" s="81"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:33">
       <c r="A9" s="20"/>
@@ -9751,36 +7484,36 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="83"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="82"/>
     </row>
     <row r="10" customHeight="1" spans="1:33">
       <c r="A10" s="20"/>
@@ -9796,7 +7529,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="59"/>
+      <c r="N10" s="58"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -9813,14 +7546,14 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="84"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="83"/>
     </row>
     <row r="11" customHeight="1" spans="1:33">
       <c r="A11" s="20"/>
       <c r="B11" s="29" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -9852,7 +7585,7 @@
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
-      <c r="AG11" s="85"/>
+      <c r="AG11" s="84"/>
     </row>
     <row r="12" customHeight="1" spans="1:33">
       <c r="A12" s="20"/>
@@ -9887,7 +7620,7 @@
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
-      <c r="AG12" s="85"/>
+      <c r="AG12" s="84"/>
     </row>
     <row r="13" customHeight="1" spans="1:33">
       <c r="A13" s="20"/>
@@ -9922,7 +7655,7 @@
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
-      <c r="AG13" s="85"/>
+      <c r="AG13" s="84"/>
     </row>
     <row r="14" customHeight="1" spans="1:33">
       <c r="A14" s="20"/>
@@ -9957,7 +7690,7 @@
       <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
-      <c r="AG14" s="85"/>
+      <c r="AG14" s="84"/>
     </row>
     <row r="15" customHeight="1" spans="1:33">
       <c r="A15" s="20"/>
@@ -9992,7 +7725,7 @@
       <c r="AD15" s="30"/>
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
-      <c r="AG15" s="85"/>
+      <c r="AG15" s="84"/>
     </row>
     <row r="16" customHeight="1" spans="1:33">
       <c r="A16" s="20"/>
@@ -10027,7 +7760,7 @@
       <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
-      <c r="AG16" s="85"/>
+      <c r="AG16" s="84"/>
     </row>
     <row r="17" customHeight="1" spans="1:33">
       <c r="A17" s="20"/>
@@ -10062,7 +7795,7 @@
       <c r="AD17" s="30"/>
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
-      <c r="AG17" s="85"/>
+      <c r="AG17" s="84"/>
     </row>
     <row r="18" customHeight="1" spans="1:33">
       <c r="A18" s="20"/>
@@ -10097,7 +7830,7 @@
       <c r="AD18" s="30"/>
       <c r="AE18" s="30"/>
       <c r="AF18" s="30"/>
-      <c r="AG18" s="85"/>
+      <c r="AG18" s="84"/>
     </row>
     <row r="19" customHeight="1" spans="1:33">
       <c r="A19" s="20"/>
@@ -10132,7 +7865,7 @@
       <c r="AD19" s="30"/>
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
-      <c r="AG19" s="85"/>
+      <c r="AG19" s="84"/>
     </row>
     <row r="20" customHeight="1" spans="1:33">
       <c r="A20" s="20"/>
@@ -10167,7 +7900,7 @@
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
-      <c r="AG20" s="85"/>
+      <c r="AG20" s="84"/>
     </row>
     <row r="21" customHeight="1" spans="1:33">
       <c r="A21" s="20"/>
@@ -10200,14 +7933,14 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="84"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="83"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:33">
       <c r="A22" s="20"/>
       <c r="B22" s="31" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -10239,12 +7972,12 @@
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
-      <c r="AG22" s="86"/>
+      <c r="AG22" s="85"/>
     </row>
     <row r="23" ht="57" customHeight="1" spans="1:33">
       <c r="A23" s="20"/>
       <c r="B23" s="33" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -10276,7 +8009,7 @@
       <c r="AD23" s="34"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="34"/>
-      <c r="AG23" s="87"/>
+      <c r="AG23" s="86"/>
     </row>
     <row r="24" customHeight="1" spans="1:33">
       <c r="A24" s="20"/>
@@ -10309,9 +8042,9 @@
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="21"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="84"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="83"/>
     </row>
     <row r="25" customHeight="1" spans="1:33">
       <c r="A25" s="20"/>
@@ -10328,14 +8061,14 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="60" t="s">
-        <v>54</v>
+      <c r="O25" s="59" t="s">
+        <v>29</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="65"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="21"/>
       <c r="V25" s="28"/>
       <c r="W25" s="21"/>
@@ -10346,9 +8079,9 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="84"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="83"/>
     </row>
     <row r="26" customHeight="1" spans="1:33">
       <c r="A26" s="20"/>
@@ -10381,638 +8114,638 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="84"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="83"/>
     </row>
     <row r="27" customHeight="1" spans="1:33">
       <c r="A27" s="20"/>
-      <c r="B27" s="35" t="s">
-        <v>55</v>
+      <c r="B27" s="29" t="s">
+        <v>30</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="88"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="87"/>
     </row>
     <row r="28" customHeight="1" spans="1:33">
       <c r="A28" s="20"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="88"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="87"/>
     </row>
     <row r="29" customHeight="1" spans="1:33">
       <c r="A29" s="20"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="88"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="87"/>
     </row>
     <row r="30" customHeight="1" spans="1:33">
       <c r="A30" s="20"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="88"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="87"/>
     </row>
     <row r="31" customHeight="1" spans="1:33">
       <c r="A31" s="20"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="88"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="87"/>
     </row>
     <row r="32" customHeight="1" spans="1:33">
       <c r="A32" s="20"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="88"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="87"/>
     </row>
     <row r="33" customHeight="1" spans="1:33">
       <c r="A33" s="20"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="88"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="87"/>
     </row>
     <row r="34" customHeight="1" spans="1:33">
       <c r="A34" s="20"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="88"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="87"/>
     </row>
     <row r="35" customHeight="1" spans="1:33">
       <c r="A35" s="20"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="88"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="87"/>
     </row>
     <row r="36" customHeight="1" spans="1:33">
       <c r="A36" s="20"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="88"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="87"/>
     </row>
     <row r="37" customHeight="1" spans="1:33">
       <c r="A37" s="20"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="88"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="87"/>
     </row>
     <row r="38" customHeight="1" spans="2:33">
-      <c r="B38" s="37"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="88"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="87"/>
     </row>
     <row r="39" customHeight="1" spans="2:33">
-      <c r="B39" s="38"/>
-      <c r="AG39" s="89"/>
+      <c r="B39" s="37"/>
+      <c r="AG39" s="88"/>
     </row>
     <row r="40" customHeight="1" spans="2:33">
-      <c r="B40" s="39" t="s">
-        <v>56</v>
+      <c r="B40" s="38" t="s">
+        <v>31</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="AG40" s="89"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="AG40" s="88"/>
     </row>
     <row r="41" customHeight="1" spans="2:33">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="H41" s="41" t="s">
-        <v>57</v>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="H41" s="40" t="s">
+        <v>32</v>
       </c>
-      <c r="O41" s="41" t="s">
-        <v>58</v>
+      <c r="O41" s="40" t="s">
+        <v>33</v>
       </c>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
-      <c r="AG41" s="89"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AG41" s="88"/>
     </row>
     <row r="42" customHeight="1" spans="2:33">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="H42" s="42" t="s">
-        <v>59</v>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="H42" s="41" t="s">
+        <v>34</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="O42" s="42" t="s">
-        <v>60</v>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="O42" s="41" t="s">
+        <v>35</v>
       </c>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="Z42" s="76"/>
-      <c r="AA42" s="76"/>
-      <c r="AG42" s="89"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="75"/>
+      <c r="AG42" s="88"/>
     </row>
     <row r="43" customHeight="1" spans="2:33">
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="AG43" s="89"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="AG43" s="88"/>
     </row>
     <row r="44" customHeight="1" spans="2:33">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="AG44" s="89"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="AG44" s="88"/>
     </row>
     <row r="45" customHeight="1" spans="2:33">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="AG45" s="89"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="AG45" s="88"/>
     </row>
     <row r="46" customHeight="1" spans="2:33">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="AG46" s="89"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="AG46" s="88"/>
     </row>
     <row r="47" customHeight="1" spans="2:33">
-      <c r="B47" s="45" t="s">
-        <v>61</v>
+      <c r="B47" s="44" t="s">
+        <v>36</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="41" t="s">
-        <v>62</v>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
-      <c r="AG47" s="89"/>
+      <c r="AG47" s="88"/>
     </row>
     <row r="48" customHeight="1" spans="2:33">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="AG48" s="89"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="AG48" s="88"/>
     </row>
     <row r="49" customHeight="1" spans="2:33">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="AG49" s="89"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="AG49" s="88"/>
     </row>
     <row r="50" customHeight="1" spans="2:33">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="77"/>
-      <c r="AF50" s="77"/>
-      <c r="AG50" s="90"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="76"/>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="28">
